--- a/experiment/nonconvex/MorganPatrone2006a/compare/M-Estacionario/MorganPatrone2006a_M-Estacionario.xlsx
+++ b/experiment/nonconvex/MorganPatrone2006a/compare/M-Estacionario/MorganPatrone2006a_M-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-1.4535000008971701</v>
       </c>
       <c r="E2">
-        <v>0.0381029</v>
+        <v>0.056914</v>
       </c>
       <c r="F2">
-        <v>0.0616169</v>
+        <v>0.1266997</v>
       </c>
       <c r="G2">
-        <v>0.04551897363636363</v>
+        <v>0.08921844821428572</v>
       </c>
       <c r="H2">
         <v>8077</v>
